--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_216.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_216.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32684-d78165-Reviews-Hotel_MdR_A_DoubleTree_by_Hilton_Hotel-Marina_del_Rey_California.html</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>993</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Hotel-MDR-Marina-Del-Rey-A-DoubleTree-By-Hilton.h27976.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_216.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_216.xlsx
@@ -12315,7 +12315,7 @@
         <v>6772</v>
       </c>
       <c r="B2" t="n">
-        <v>139749</v>
+        <v>170880</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -12386,7 +12386,7 @@
         <v>6772</v>
       </c>
       <c r="B3" t="n">
-        <v>139750</v>
+        <v>170881</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -12532,7 +12532,7 @@
         <v>6772</v>
       </c>
       <c r="B5" t="n">
-        <v>139751</v>
+        <v>170882</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -12603,7 +12603,7 @@
         <v>6772</v>
       </c>
       <c r="B6" t="n">
-        <v>139752</v>
+        <v>170883</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
@@ -12674,7 +12674,7 @@
         <v>6772</v>
       </c>
       <c r="B7" t="n">
-        <v>139753</v>
+        <v>170884</v>
       </c>
       <c r="C7" t="s">
         <v>83</v>
@@ -12749,7 +12749,7 @@
         <v>6772</v>
       </c>
       <c r="B8" t="n">
-        <v>139754</v>
+        <v>170885</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -12820,7 +12820,7 @@
         <v>6772</v>
       </c>
       <c r="B9" t="n">
-        <v>139755</v>
+        <v>170886</v>
       </c>
       <c r="C9" t="s">
         <v>101</v>
@@ -12891,7 +12891,7 @@
         <v>6772</v>
       </c>
       <c r="B10" t="n">
-        <v>139756</v>
+        <v>170887</v>
       </c>
       <c r="C10" t="s">
         <v>106</v>
@@ -12966,7 +12966,7 @@
         <v>6772</v>
       </c>
       <c r="B11" t="n">
-        <v>139757</v>
+        <v>170888</v>
       </c>
       <c r="C11" t="s">
         <v>114</v>
@@ -13023,7 +13023,7 @@
         <v>6772</v>
       </c>
       <c r="B12" t="n">
-        <v>139758</v>
+        <v>170889</v>
       </c>
       <c r="C12" t="s">
         <v>120</v>
@@ -13094,7 +13094,7 @@
         <v>6772</v>
       </c>
       <c r="B13" t="n">
-        <v>139759</v>
+        <v>170890</v>
       </c>
       <c r="C13" t="s">
         <v>128</v>
@@ -13165,7 +13165,7 @@
         <v>6772</v>
       </c>
       <c r="B14" t="n">
-        <v>139760</v>
+        <v>170891</v>
       </c>
       <c r="C14" t="s">
         <v>134</v>
@@ -13240,7 +13240,7 @@
         <v>6772</v>
       </c>
       <c r="B15" t="n">
-        <v>139761</v>
+        <v>170892</v>
       </c>
       <c r="C15" t="s">
         <v>143</v>
@@ -13311,7 +13311,7 @@
         <v>6772</v>
       </c>
       <c r="B16" t="n">
-        <v>139762</v>
+        <v>170893</v>
       </c>
       <c r="C16" t="s">
         <v>149</v>
@@ -13372,7 +13372,7 @@
         <v>6772</v>
       </c>
       <c r="B17" t="n">
-        <v>139763</v>
+        <v>170894</v>
       </c>
       <c r="C17" t="s">
         <v>157</v>
@@ -13636,7 +13636,7 @@
         <v>6772</v>
       </c>
       <c r="B21" t="n">
-        <v>139764</v>
+        <v>170895</v>
       </c>
       <c r="C21" t="s">
         <v>182</v>
@@ -13701,7 +13701,7 @@
         <v>6772</v>
       </c>
       <c r="B22" t="n">
-        <v>139765</v>
+        <v>170896</v>
       </c>
       <c r="C22" t="s">
         <v>190</v>
@@ -13843,7 +13843,7 @@
         <v>6772</v>
       </c>
       <c r="B24" t="n">
-        <v>139766</v>
+        <v>170897</v>
       </c>
       <c r="C24" t="s">
         <v>202</v>
@@ -14056,7 +14056,7 @@
         <v>6772</v>
       </c>
       <c r="B27" t="n">
-        <v>139767</v>
+        <v>170898</v>
       </c>
       <c r="C27" t="s">
         <v>220</v>
@@ -14127,7 +14127,7 @@
         <v>6772</v>
       </c>
       <c r="B28" t="n">
-        <v>139768</v>
+        <v>170899</v>
       </c>
       <c r="C28" t="s">
         <v>226</v>
@@ -14271,7 +14271,7 @@
         <v>6772</v>
       </c>
       <c r="B30" t="n">
-        <v>139769</v>
+        <v>170900</v>
       </c>
       <c r="C30" t="s">
         <v>244</v>
@@ -14407,7 +14407,7 @@
         <v>6772</v>
       </c>
       <c r="B32" t="n">
-        <v>139770</v>
+        <v>139807</v>
       </c>
       <c r="C32" t="s">
         <v>259</v>
@@ -14468,7 +14468,7 @@
         <v>6772</v>
       </c>
       <c r="B33" t="n">
-        <v>139771</v>
+        <v>170901</v>
       </c>
       <c r="C33" t="s">
         <v>265</v>
@@ -14604,7 +14604,7 @@
         <v>6772</v>
       </c>
       <c r="B35" t="n">
-        <v>139772</v>
+        <v>170902</v>
       </c>
       <c r="C35" t="s">
         <v>282</v>
@@ -14736,7 +14736,7 @@
         <v>6772</v>
       </c>
       <c r="B37" t="n">
-        <v>139773</v>
+        <v>170903</v>
       </c>
       <c r="C37" t="s">
         <v>295</v>
@@ -14807,7 +14807,7 @@
         <v>6772</v>
       </c>
       <c r="B38" t="n">
-        <v>139774</v>
+        <v>170904</v>
       </c>
       <c r="C38" t="s">
         <v>301</v>
@@ -14949,7 +14949,7 @@
         <v>6772</v>
       </c>
       <c r="B40" t="n">
-        <v>139775</v>
+        <v>170905</v>
       </c>
       <c r="C40" t="s">
         <v>314</v>
@@ -15020,7 +15020,7 @@
         <v>6772</v>
       </c>
       <c r="B41" t="n">
-        <v>139776</v>
+        <v>170906</v>
       </c>
       <c r="C41" t="s">
         <v>322</v>
@@ -15081,7 +15081,7 @@
         <v>6772</v>
       </c>
       <c r="B42" t="n">
-        <v>139777</v>
+        <v>170907</v>
       </c>
       <c r="C42" t="s">
         <v>328</v>
@@ -15152,7 +15152,7 @@
         <v>6772</v>
       </c>
       <c r="B43" t="n">
-        <v>139778</v>
+        <v>170908</v>
       </c>
       <c r="C43" t="s">
         <v>334</v>
@@ -15223,7 +15223,7 @@
         <v>6772</v>
       </c>
       <c r="B44" t="n">
-        <v>139779</v>
+        <v>170909</v>
       </c>
       <c r="C44" t="s">
         <v>340</v>
@@ -15365,7 +15365,7 @@
         <v>6772</v>
       </c>
       <c r="B46" t="n">
-        <v>139780</v>
+        <v>170910</v>
       </c>
       <c r="C46" t="s">
         <v>355</v>
@@ -15436,7 +15436,7 @@
         <v>6772</v>
       </c>
       <c r="B47" t="n">
-        <v>139781</v>
+        <v>170911</v>
       </c>
       <c r="C47" t="s">
         <v>360</v>
@@ -15503,7 +15503,7 @@
         <v>6772</v>
       </c>
       <c r="B48" t="n">
-        <v>139782</v>
+        <v>170912</v>
       </c>
       <c r="C48" t="s">
         <v>367</v>
@@ -15574,7 +15574,7 @@
         <v>6772</v>
       </c>
       <c r="B49" t="n">
-        <v>139783</v>
+        <v>170913</v>
       </c>
       <c r="C49" t="s">
         <v>373</v>
@@ -15645,7 +15645,7 @@
         <v>6772</v>
       </c>
       <c r="B50" t="n">
-        <v>139784</v>
+        <v>170914</v>
       </c>
       <c r="C50" t="s">
         <v>379</v>
@@ -15720,7 +15720,7 @@
         <v>6772</v>
       </c>
       <c r="B51" t="n">
-        <v>139785</v>
+        <v>170915</v>
       </c>
       <c r="C51" t="s">
         <v>388</v>
@@ -15781,7 +15781,7 @@
         <v>6772</v>
       </c>
       <c r="B52" t="n">
-        <v>139786</v>
+        <v>170916</v>
       </c>
       <c r="C52" t="s">
         <v>395</v>
@@ -15852,7 +15852,7 @@
         <v>6772</v>
       </c>
       <c r="B53" t="n">
-        <v>139787</v>
+        <v>170917</v>
       </c>
       <c r="C53" t="s">
         <v>401</v>
@@ -15923,7 +15923,7 @@
         <v>6772</v>
       </c>
       <c r="B54" t="n">
-        <v>139788</v>
+        <v>170918</v>
       </c>
       <c r="C54" t="s">
         <v>407</v>
@@ -15994,7 +15994,7 @@
         <v>6772</v>
       </c>
       <c r="B55" t="n">
-        <v>139789</v>
+        <v>170919</v>
       </c>
       <c r="C55" t="s">
         <v>413</v>
@@ -16069,7 +16069,7 @@
         <v>6772</v>
       </c>
       <c r="B56" t="n">
-        <v>139790</v>
+        <v>170920</v>
       </c>
       <c r="C56" t="s">
         <v>422</v>
@@ -16144,7 +16144,7 @@
         <v>6772</v>
       </c>
       <c r="B57" t="n">
-        <v>139791</v>
+        <v>170921</v>
       </c>
       <c r="C57" t="s">
         <v>431</v>
@@ -16215,7 +16215,7 @@
         <v>6772</v>
       </c>
       <c r="B58" t="n">
-        <v>139792</v>
+        <v>170922</v>
       </c>
       <c r="C58" t="s">
         <v>437</v>
@@ -16420,7 +16420,7 @@
         <v>6772</v>
       </c>
       <c r="B61" t="n">
-        <v>139793</v>
+        <v>170923</v>
       </c>
       <c r="C61" t="s">
         <v>455</v>
@@ -16566,7 +16566,7 @@
         <v>6772</v>
       </c>
       <c r="B63" t="n">
-        <v>139794</v>
+        <v>170924</v>
       </c>
       <c r="C63" t="s">
         <v>470</v>
@@ -16769,7 +16769,7 @@
         <v>6772</v>
       </c>
       <c r="B66" t="n">
-        <v>139795</v>
+        <v>170925</v>
       </c>
       <c r="C66" t="s">
         <v>490</v>
@@ -16840,7 +16840,7 @@
         <v>6772</v>
       </c>
       <c r="B67" t="n">
-        <v>139796</v>
+        <v>170926</v>
       </c>
       <c r="C67" t="s">
         <v>498</v>
@@ -16911,7 +16911,7 @@
         <v>6772</v>
       </c>
       <c r="B68" t="n">
-        <v>139797</v>
+        <v>170927</v>
       </c>
       <c r="C68" t="s">
         <v>503</v>
@@ -16976,7 +16976,7 @@
         <v>6772</v>
       </c>
       <c r="B69" t="n">
-        <v>139798</v>
+        <v>170928</v>
       </c>
       <c r="C69" t="s">
         <v>509</v>
@@ -17189,7 +17189,7 @@
         <v>6772</v>
       </c>
       <c r="B72" t="n">
-        <v>139799</v>
+        <v>170929</v>
       </c>
       <c r="C72" t="s">
         <v>526</v>
@@ -17260,7 +17260,7 @@
         <v>6772</v>
       </c>
       <c r="B73" t="n">
-        <v>139800</v>
+        <v>170930</v>
       </c>
       <c r="C73" t="s">
         <v>532</v>
@@ -17331,7 +17331,7 @@
         <v>6772</v>
       </c>
       <c r="B74" t="n">
-        <v>139801</v>
+        <v>170931</v>
       </c>
       <c r="C74" t="s">
         <v>538</v>
@@ -17477,7 +17477,7 @@
         <v>6772</v>
       </c>
       <c r="B76" t="n">
-        <v>139802</v>
+        <v>170932</v>
       </c>
       <c r="C76" t="s">
         <v>551</v>
@@ -17548,7 +17548,7 @@
         <v>6772</v>
       </c>
       <c r="B77" t="n">
-        <v>139803</v>
+        <v>170933</v>
       </c>
       <c r="C77" t="s">
         <v>557</v>
@@ -17619,7 +17619,7 @@
         <v>6772</v>
       </c>
       <c r="B78" t="n">
-        <v>139804</v>
+        <v>170934</v>
       </c>
       <c r="C78" t="s">
         <v>564</v>
@@ -17686,7 +17686,7 @@
         <v>6772</v>
       </c>
       <c r="B79" t="n">
-        <v>139805</v>
+        <v>170935</v>
       </c>
       <c r="C79" t="s">
         <v>569</v>
@@ -17757,7 +17757,7 @@
         <v>6772</v>
       </c>
       <c r="B80" t="n">
-        <v>139806</v>
+        <v>170936</v>
       </c>
       <c r="C80" t="s">
         <v>575</v>
@@ -17826,7 +17826,7 @@
         <v>6772</v>
       </c>
       <c r="B81" t="n">
-        <v>139807</v>
+        <v>170937</v>
       </c>
       <c r="C81" t="s">
         <v>581</v>
@@ -17897,7 +17897,7 @@
         <v>6772</v>
       </c>
       <c r="B82" t="n">
-        <v>139808</v>
+        <v>170938</v>
       </c>
       <c r="C82" t="s">
         <v>586</v>
@@ -17968,7 +17968,7 @@
         <v>6772</v>
       </c>
       <c r="B83" t="n">
-        <v>139809</v>
+        <v>170939</v>
       </c>
       <c r="C83" t="s">
         <v>595</v>
@@ -18039,7 +18039,7 @@
         <v>6772</v>
       </c>
       <c r="B84" t="n">
-        <v>139810</v>
+        <v>170940</v>
       </c>
       <c r="C84" t="s">
         <v>601</v>
@@ -18108,7 +18108,7 @@
         <v>6772</v>
       </c>
       <c r="B85" t="n">
-        <v>139811</v>
+        <v>170941</v>
       </c>
       <c r="C85" t="s">
         <v>607</v>
@@ -18179,7 +18179,7 @@
         <v>6772</v>
       </c>
       <c r="B86" t="n">
-        <v>139812</v>
+        <v>170942</v>
       </c>
       <c r="C86" t="s">
         <v>612</v>
@@ -18250,7 +18250,7 @@
         <v>6772</v>
       </c>
       <c r="B87" t="n">
-        <v>139813</v>
+        <v>170943</v>
       </c>
       <c r="C87" t="s">
         <v>618</v>
@@ -18321,7 +18321,7 @@
         <v>6772</v>
       </c>
       <c r="B88" t="n">
-        <v>139814</v>
+        <v>170944</v>
       </c>
       <c r="C88" t="s">
         <v>624</v>
@@ -18386,7 +18386,7 @@
         <v>6772</v>
       </c>
       <c r="B89" t="n">
-        <v>139815</v>
+        <v>170945</v>
       </c>
       <c r="C89" t="s">
         <v>631</v>
@@ -18461,7 +18461,7 @@
         <v>6772</v>
       </c>
       <c r="B90" t="n">
-        <v>139816</v>
+        <v>170946</v>
       </c>
       <c r="C90" t="s">
         <v>639</v>
@@ -18526,7 +18526,7 @@
         <v>6772</v>
       </c>
       <c r="B91" t="n">
-        <v>139817</v>
+        <v>170947</v>
       </c>
       <c r="C91" t="s">
         <v>646</v>
@@ -18664,7 +18664,7 @@
         <v>6772</v>
       </c>
       <c r="B93" t="n">
-        <v>139818</v>
+        <v>170948</v>
       </c>
       <c r="C93" t="s">
         <v>659</v>
@@ -18731,7 +18731,7 @@
         <v>6772</v>
       </c>
       <c r="B94" t="n">
-        <v>139819</v>
+        <v>170949</v>
       </c>
       <c r="C94" t="s">
         <v>665</v>
@@ -18796,7 +18796,7 @@
         <v>6772</v>
       </c>
       <c r="B95" t="n">
-        <v>139820</v>
+        <v>170950</v>
       </c>
       <c r="C95" t="s">
         <v>671</v>
@@ -18857,7 +18857,7 @@
         <v>6772</v>
       </c>
       <c r="B96" t="n">
-        <v>139821</v>
+        <v>170951</v>
       </c>
       <c r="C96" t="s">
         <v>677</v>
@@ -18928,7 +18928,7 @@
         <v>6772</v>
       </c>
       <c r="B97" t="n">
-        <v>139822</v>
+        <v>170952</v>
       </c>
       <c r="C97" t="s">
         <v>683</v>
@@ -19003,7 +19003,7 @@
         <v>6772</v>
       </c>
       <c r="B98" t="n">
-        <v>139823</v>
+        <v>170953</v>
       </c>
       <c r="C98" t="s">
         <v>691</v>
@@ -19064,7 +19064,7 @@
         <v>6772</v>
       </c>
       <c r="B99" t="n">
-        <v>139824</v>
+        <v>170954</v>
       </c>
       <c r="C99" t="s">
         <v>697</v>
@@ -19135,7 +19135,7 @@
         <v>6772</v>
       </c>
       <c r="B100" t="n">
-        <v>139825</v>
+        <v>170955</v>
       </c>
       <c r="C100" t="s">
         <v>702</v>
@@ -19285,7 +19285,7 @@
         <v>6772</v>
       </c>
       <c r="B102" t="n">
-        <v>139826</v>
+        <v>170956</v>
       </c>
       <c r="C102" t="s">
         <v>718</v>
@@ -19350,7 +19350,7 @@
         <v>6772</v>
       </c>
       <c r="B103" t="n">
-        <v>139827</v>
+        <v>170957</v>
       </c>
       <c r="C103" t="s">
         <v>724</v>
@@ -19421,7 +19421,7 @@
         <v>6772</v>
       </c>
       <c r="B104" t="n">
-        <v>139828</v>
+        <v>170958</v>
       </c>
       <c r="C104" t="s">
         <v>730</v>
@@ -19482,7 +19482,7 @@
         <v>6772</v>
       </c>
       <c r="B105" t="n">
-        <v>139829</v>
+        <v>170959</v>
       </c>
       <c r="C105" t="s">
         <v>738</v>
@@ -19547,7 +19547,7 @@
         <v>6772</v>
       </c>
       <c r="B106" t="n">
-        <v>139830</v>
+        <v>170960</v>
       </c>
       <c r="C106" t="s">
         <v>746</v>
@@ -19754,7 +19754,7 @@
         <v>6772</v>
       </c>
       <c r="B109" t="n">
-        <v>139831</v>
+        <v>170961</v>
       </c>
       <c r="C109" t="s">
         <v>769</v>
@@ -19815,7 +19815,7 @@
         <v>6772</v>
       </c>
       <c r="B110" t="n">
-        <v>139832</v>
+        <v>170962</v>
       </c>
       <c r="C110" t="s">
         <v>775</v>
@@ -19884,7 +19884,7 @@
         <v>6772</v>
       </c>
       <c r="B111" t="n">
-        <v>139833</v>
+        <v>170963</v>
       </c>
       <c r="C111" t="s">
         <v>781</v>
@@ -20026,7 +20026,7 @@
         <v>6772</v>
       </c>
       <c r="B113" t="n">
-        <v>139834</v>
+        <v>170964</v>
       </c>
       <c r="C113" t="s">
         <v>793</v>
@@ -20101,7 +20101,7 @@
         <v>6772</v>
       </c>
       <c r="B114" t="n">
-        <v>139835</v>
+        <v>170965</v>
       </c>
       <c r="C114" t="s">
         <v>802</v>
@@ -20172,7 +20172,7 @@
         <v>6772</v>
       </c>
       <c r="B115" t="n">
-        <v>139836</v>
+        <v>170966</v>
       </c>
       <c r="C115" t="s">
         <v>808</v>
@@ -20243,7 +20243,7 @@
         <v>6772</v>
       </c>
       <c r="B116" t="n">
-        <v>139837</v>
+        <v>170967</v>
       </c>
       <c r="C116" t="s">
         <v>815</v>
@@ -20432,7 +20432,7 @@
         <v>6772</v>
       </c>
       <c r="B119" t="n">
-        <v>139838</v>
+        <v>170968</v>
       </c>
       <c r="C119" t="s">
         <v>836</v>
@@ -20503,7 +20503,7 @@
         <v>6772</v>
       </c>
       <c r="B120" t="n">
-        <v>139839</v>
+        <v>170969</v>
       </c>
       <c r="C120" t="s">
         <v>842</v>
@@ -20641,7 +20641,7 @@
         <v>6772</v>
       </c>
       <c r="B122" t="n">
-        <v>139840</v>
+        <v>170970</v>
       </c>
       <c r="C122" t="s">
         <v>855</v>
@@ -20712,7 +20712,7 @@
         <v>6772</v>
       </c>
       <c r="B123" t="n">
-        <v>139841</v>
+        <v>170971</v>
       </c>
       <c r="C123" t="s">
         <v>860</v>
@@ -20773,7 +20773,7 @@
         <v>6772</v>
       </c>
       <c r="B124" t="n">
-        <v>139842</v>
+        <v>170972</v>
       </c>
       <c r="C124" t="s">
         <v>867</v>
@@ -20834,7 +20834,7 @@
         <v>6772</v>
       </c>
       <c r="B125" t="n">
-        <v>139843</v>
+        <v>170973</v>
       </c>
       <c r="C125" t="s">
         <v>874</v>
@@ -20905,7 +20905,7 @@
         <v>6772</v>
       </c>
       <c r="B126" t="n">
-        <v>139844</v>
+        <v>170974</v>
       </c>
       <c r="C126" t="s">
         <v>880</v>
@@ -21047,7 +21047,7 @@
         <v>6772</v>
       </c>
       <c r="B128" t="n">
-        <v>139845</v>
+        <v>170975</v>
       </c>
       <c r="C128" t="s">
         <v>894</v>
@@ -21122,7 +21122,7 @@
         <v>6772</v>
       </c>
       <c r="B129" t="n">
-        <v>139846</v>
+        <v>170976</v>
       </c>
       <c r="C129" t="s">
         <v>901</v>
@@ -21187,7 +21187,7 @@
         <v>6772</v>
       </c>
       <c r="B130" t="n">
-        <v>139847</v>
+        <v>170977</v>
       </c>
       <c r="C130" t="s">
         <v>908</v>
@@ -21262,7 +21262,7 @@
         <v>6772</v>
       </c>
       <c r="B131" t="n">
-        <v>139848</v>
+        <v>170978</v>
       </c>
       <c r="C131" t="s">
         <v>915</v>
@@ -21337,7 +21337,7 @@
         <v>6772</v>
       </c>
       <c r="B132" t="n">
-        <v>139849</v>
+        <v>170979</v>
       </c>
       <c r="C132" t="s">
         <v>922</v>
@@ -21487,7 +21487,7 @@
         <v>6772</v>
       </c>
       <c r="B134" t="n">
-        <v>139850</v>
+        <v>170980</v>
       </c>
       <c r="C134" t="s">
         <v>937</v>
@@ -21773,7 +21773,7 @@
         <v>6772</v>
       </c>
       <c r="B138" t="n">
-        <v>139851</v>
+        <v>170981</v>
       </c>
       <c r="C138" t="s">
         <v>963</v>
@@ -21844,7 +21844,7 @@
         <v>6772</v>
       </c>
       <c r="B139" t="n">
-        <v>139852</v>
+        <v>170982</v>
       </c>
       <c r="C139" t="s">
         <v>968</v>
@@ -21986,7 +21986,7 @@
         <v>6772</v>
       </c>
       <c r="B141" t="n">
-        <v>139853</v>
+        <v>170983</v>
       </c>
       <c r="C141" t="s">
         <v>979</v>
@@ -22061,7 +22061,7 @@
         <v>6772</v>
       </c>
       <c r="B142" t="n">
-        <v>139854</v>
+        <v>170984</v>
       </c>
       <c r="C142" t="s">
         <v>988</v>
@@ -22136,7 +22136,7 @@
         <v>6772</v>
       </c>
       <c r="B143" t="n">
-        <v>139855</v>
+        <v>170985</v>
       </c>
       <c r="C143" t="s">
         <v>995</v>
@@ -22280,7 +22280,7 @@
         <v>6772</v>
       </c>
       <c r="B145" t="n">
-        <v>139856</v>
+        <v>170986</v>
       </c>
       <c r="C145" t="s">
         <v>1010</v>
@@ -22355,7 +22355,7 @@
         <v>6772</v>
       </c>
       <c r="B146" t="n">
-        <v>139857</v>
+        <v>170987</v>
       </c>
       <c r="C146" t="s">
         <v>1019</v>
@@ -22430,7 +22430,7 @@
         <v>6772</v>
       </c>
       <c r="B147" t="n">
-        <v>139858</v>
+        <v>170988</v>
       </c>
       <c r="C147" t="s">
         <v>1026</v>
@@ -22505,7 +22505,7 @@
         <v>6772</v>
       </c>
       <c r="B148" t="n">
-        <v>139859</v>
+        <v>170989</v>
       </c>
       <c r="C148" t="s">
         <v>1032</v>
@@ -22580,7 +22580,7 @@
         <v>6772</v>
       </c>
       <c r="B149" t="n">
-        <v>139860</v>
+        <v>170990</v>
       </c>
       <c r="C149" t="s">
         <v>1039</v>
@@ -22730,7 +22730,7 @@
         <v>6772</v>
       </c>
       <c r="B151" t="n">
-        <v>139861</v>
+        <v>170991</v>
       </c>
       <c r="C151" t="s">
         <v>1052</v>
@@ -22805,7 +22805,7 @@
         <v>6772</v>
       </c>
       <c r="B152" t="n">
-        <v>139862</v>
+        <v>170992</v>
       </c>
       <c r="C152" t="s">
         <v>1058</v>
@@ -22955,7 +22955,7 @@
         <v>6772</v>
       </c>
       <c r="B154" t="n">
-        <v>139863</v>
+        <v>170993</v>
       </c>
       <c r="C154" t="s">
         <v>1072</v>
@@ -23030,7 +23030,7 @@
         <v>6772</v>
       </c>
       <c r="B155" t="n">
-        <v>139864</v>
+        <v>170994</v>
       </c>
       <c r="C155" t="s">
         <v>1078</v>
@@ -23095,7 +23095,7 @@
         <v>6772</v>
       </c>
       <c r="B156" t="n">
-        <v>139865</v>
+        <v>170995</v>
       </c>
       <c r="C156" t="s">
         <v>1085</v>
@@ -23229,7 +23229,7 @@
         <v>6772</v>
       </c>
       <c r="B158" t="n">
-        <v>139866</v>
+        <v>170996</v>
       </c>
       <c r="C158" t="s">
         <v>1099</v>
@@ -23582,7 +23582,7 @@
         <v>6772</v>
       </c>
       <c r="B163" t="n">
-        <v>139867</v>
+        <v>170997</v>
       </c>
       <c r="C163" t="s">
         <v>1136</v>
@@ -23787,7 +23787,7 @@
         <v>6772</v>
       </c>
       <c r="B166" t="n">
-        <v>139868</v>
+        <v>170998</v>
       </c>
       <c r="C166" t="s">
         <v>1157</v>
@@ -23862,7 +23862,7 @@
         <v>6772</v>
       </c>
       <c r="B167" t="n">
-        <v>139869</v>
+        <v>170999</v>
       </c>
       <c r="C167" t="s">
         <v>1163</v>
@@ -23937,7 +23937,7 @@
         <v>6772</v>
       </c>
       <c r="B168" t="n">
-        <v>139870</v>
+        <v>171000</v>
       </c>
       <c r="C168" t="s">
         <v>1170</v>
@@ -24087,7 +24087,7 @@
         <v>6772</v>
       </c>
       <c r="B170" t="n">
-        <v>139871</v>
+        <v>171001</v>
       </c>
       <c r="C170" t="s">
         <v>1182</v>
@@ -24162,7 +24162,7 @@
         <v>6772</v>
       </c>
       <c r="B171" t="n">
-        <v>139872</v>
+        <v>171002</v>
       </c>
       <c r="C171" t="s">
         <v>1189</v>
@@ -24233,7 +24233,7 @@
         <v>6772</v>
       </c>
       <c r="B172" t="n">
-        <v>139873</v>
+        <v>171003</v>
       </c>
       <c r="C172" t="s">
         <v>1196</v>
@@ -24440,7 +24440,7 @@
         <v>6772</v>
       </c>
       <c r="B175" t="n">
-        <v>139874</v>
+        <v>171004</v>
       </c>
       <c r="C175" t="s">
         <v>1217</v>
@@ -24511,7 +24511,7 @@
         <v>6772</v>
       </c>
       <c r="B176" t="n">
-        <v>139875</v>
+        <v>171005</v>
       </c>
       <c r="C176" t="s">
         <v>1223</v>
@@ -24580,7 +24580,7 @@
         <v>6772</v>
       </c>
       <c r="B177" t="n">
-        <v>139876</v>
+        <v>171006</v>
       </c>
       <c r="C177" t="s">
         <v>1232</v>
@@ -24799,7 +24799,7 @@
         <v>6772</v>
       </c>
       <c r="B180" t="n">
-        <v>139877</v>
+        <v>171007</v>
       </c>
       <c r="C180" t="s">
         <v>1254</v>
@@ -24874,7 +24874,7 @@
         <v>6772</v>
       </c>
       <c r="B181" t="n">
-        <v>139878</v>
+        <v>171008</v>
       </c>
       <c r="C181" t="s">
         <v>1261</v>
@@ -24949,7 +24949,7 @@
         <v>6772</v>
       </c>
       <c r="B182" t="n">
-        <v>139879</v>
+        <v>171009</v>
       </c>
       <c r="C182" t="s">
         <v>1267</v>
@@ -25024,7 +25024,7 @@
         <v>6772</v>
       </c>
       <c r="B183" t="n">
-        <v>139880</v>
+        <v>171010</v>
       </c>
       <c r="C183" t="s">
         <v>1274</v>
@@ -25099,7 +25099,7 @@
         <v>6772</v>
       </c>
       <c r="B184" t="n">
-        <v>139881</v>
+        <v>171011</v>
       </c>
       <c r="C184" t="s">
         <v>1280</v>
@@ -25239,7 +25239,7 @@
         <v>6772</v>
       </c>
       <c r="B186" t="n">
-        <v>139882</v>
+        <v>171012</v>
       </c>
       <c r="C186" t="s">
         <v>1296</v>
@@ -25389,7 +25389,7 @@
         <v>6772</v>
       </c>
       <c r="B188" t="n">
-        <v>139883</v>
+        <v>171013</v>
       </c>
       <c r="C188" t="s">
         <v>1313</v>
@@ -25458,7 +25458,7 @@
         <v>6772</v>
       </c>
       <c r="B189" t="n">
-        <v>139884</v>
+        <v>171014</v>
       </c>
       <c r="C189" t="s">
         <v>1322</v>
@@ -25533,7 +25533,7 @@
         <v>6772</v>
       </c>
       <c r="B190" t="n">
-        <v>139885</v>
+        <v>171015</v>
       </c>
       <c r="C190" t="s">
         <v>1329</v>
@@ -25604,7 +25604,7 @@
         <v>6772</v>
       </c>
       <c r="B191" t="n">
-        <v>139886</v>
+        <v>171016</v>
       </c>
       <c r="C191" t="s">
         <v>1337</v>
@@ -25744,7 +25744,7 @@
         <v>6772</v>
       </c>
       <c r="B193" t="n">
-        <v>139887</v>
+        <v>171017</v>
       </c>
       <c r="C193" t="s">
         <v>1352</v>
@@ -25805,7 +25805,7 @@
         <v>6772</v>
       </c>
       <c r="B194" t="n">
-        <v>139888</v>
+        <v>171018</v>
       </c>
       <c r="C194" t="s">
         <v>1359</v>
@@ -25880,7 +25880,7 @@
         <v>6772</v>
       </c>
       <c r="B195" t="n">
-        <v>139889</v>
+        <v>171019</v>
       </c>
       <c r="C195" t="s">
         <v>1366</v>
@@ -26030,7 +26030,7 @@
         <v>6772</v>
       </c>
       <c r="B197" t="n">
-        <v>139890</v>
+        <v>171020</v>
       </c>
       <c r="C197" t="s">
         <v>1379</v>
@@ -26101,7 +26101,7 @@
         <v>6772</v>
       </c>
       <c r="B198" t="n">
-        <v>139891</v>
+        <v>171021</v>
       </c>
       <c r="C198" t="s">
         <v>1386</v>
@@ -26391,7 +26391,7 @@
         <v>6772</v>
       </c>
       <c r="B202" t="n">
-        <v>139892</v>
+        <v>171022</v>
       </c>
       <c r="C202" t="s">
         <v>1413</v>
@@ -26456,7 +26456,7 @@
         <v>6772</v>
       </c>
       <c r="B203" t="n">
-        <v>139893</v>
+        <v>171023</v>
       </c>
       <c r="C203" t="s">
         <v>1420</v>
@@ -26531,7 +26531,7 @@
         <v>6772</v>
       </c>
       <c r="B204" t="n">
-        <v>139894</v>
+        <v>171024</v>
       </c>
       <c r="C204" t="s">
         <v>1427</v>
@@ -26606,7 +26606,7 @@
         <v>6772</v>
       </c>
       <c r="B205" t="n">
-        <v>139895</v>
+        <v>171025</v>
       </c>
       <c r="C205" t="s">
         <v>1433</v>
@@ -26681,7 +26681,7 @@
         <v>6772</v>
       </c>
       <c r="B206" t="n">
-        <v>139896</v>
+        <v>171026</v>
       </c>
       <c r="C206" t="s">
         <v>1439</v>
@@ -26750,7 +26750,7 @@
         <v>6772</v>
       </c>
       <c r="B207" t="n">
-        <v>139897</v>
+        <v>171027</v>
       </c>
       <c r="C207" t="s">
         <v>1446</v>
@@ -26825,7 +26825,7 @@
         <v>6772</v>
       </c>
       <c r="B208" t="n">
-        <v>139898</v>
+        <v>171028</v>
       </c>
       <c r="C208" t="s">
         <v>1452</v>
@@ -26900,7 +26900,7 @@
         <v>6772</v>
       </c>
       <c r="B209" t="n">
-        <v>139899</v>
+        <v>171029</v>
       </c>
       <c r="C209" t="s">
         <v>1459</v>
@@ -26965,7 +26965,7 @@
         <v>6772</v>
       </c>
       <c r="B210" t="n">
-        <v>139900</v>
+        <v>171030</v>
       </c>
       <c r="C210" t="s">
         <v>1468</v>
@@ -27040,7 +27040,7 @@
         <v>6772</v>
       </c>
       <c r="B211" t="n">
-        <v>139901</v>
+        <v>171031</v>
       </c>
       <c r="C211" t="s">
         <v>1477</v>
@@ -27176,7 +27176,7 @@
         <v>6772</v>
       </c>
       <c r="B213" t="n">
-        <v>139902</v>
+        <v>171032</v>
       </c>
       <c r="C213" t="s">
         <v>1491</v>
@@ -27326,7 +27326,7 @@
         <v>6772</v>
       </c>
       <c r="B215" t="n">
-        <v>139903</v>
+        <v>171033</v>
       </c>
       <c r="C215" t="s">
         <v>1504</v>
@@ -27401,7 +27401,7 @@
         <v>6772</v>
       </c>
       <c r="B216" t="n">
-        <v>139904</v>
+        <v>171034</v>
       </c>
       <c r="C216" t="s">
         <v>1511</v>
@@ -27476,7 +27476,7 @@
         <v>6772</v>
       </c>
       <c r="B217" t="n">
-        <v>139905</v>
+        <v>171035</v>
       </c>
       <c r="C217" t="s">
         <v>1518</v>
@@ -27547,7 +27547,7 @@
         <v>6772</v>
       </c>
       <c r="B218" t="n">
-        <v>139906</v>
+        <v>171036</v>
       </c>
       <c r="C218" t="s">
         <v>1525</v>
@@ -27622,7 +27622,7 @@
         <v>6772</v>
       </c>
       <c r="B219" t="n">
-        <v>139907</v>
+        <v>171037</v>
       </c>
       <c r="C219" t="s">
         <v>1532</v>
@@ -27687,7 +27687,7 @@
         <v>6772</v>
       </c>
       <c r="B220" t="n">
-        <v>139908</v>
+        <v>171038</v>
       </c>
       <c r="C220" t="s">
         <v>1541</v>
@@ -27762,7 +27762,7 @@
         <v>6772</v>
       </c>
       <c r="B221" t="n">
-        <v>139909</v>
+        <v>171039</v>
       </c>
       <c r="C221" t="s">
         <v>1547</v>
@@ -27837,7 +27837,7 @@
         <v>6772</v>
       </c>
       <c r="B222" t="n">
-        <v>139910</v>
+        <v>171040</v>
       </c>
       <c r="C222" t="s">
         <v>1554</v>
@@ -27912,7 +27912,7 @@
         <v>6772</v>
       </c>
       <c r="B223" t="n">
-        <v>139769</v>
+        <v>139807</v>
       </c>
       <c r="C223" t="s">
         <v>259</v>
@@ -27977,7 +27977,7 @@
         <v>6772</v>
       </c>
       <c r="B224" t="n">
-        <v>139911</v>
+        <v>171041</v>
       </c>
       <c r="C224" t="s">
         <v>1571</v>
@@ -28125,7 +28125,7 @@
         <v>6772</v>
       </c>
       <c r="B226" t="n">
-        <v>139912</v>
+        <v>171042</v>
       </c>
       <c r="C226" t="s">
         <v>1587</v>
@@ -28350,7 +28350,7 @@
         <v>6772</v>
       </c>
       <c r="B229" t="n">
-        <v>139913</v>
+        <v>171043</v>
       </c>
       <c r="C229" t="s">
         <v>1608</v>
@@ -28425,7 +28425,7 @@
         <v>6772</v>
       </c>
       <c r="B230" t="n">
-        <v>139914</v>
+        <v>171044</v>
       </c>
       <c r="C230" t="s">
         <v>1615</v>
@@ -28500,7 +28500,7 @@
         <v>6772</v>
       </c>
       <c r="B231" t="n">
-        <v>139915</v>
+        <v>171045</v>
       </c>
       <c r="C231" t="s">
         <v>1622</v>
@@ -28575,7 +28575,7 @@
         <v>6772</v>
       </c>
       <c r="B232" t="n">
-        <v>139916</v>
+        <v>171046</v>
       </c>
       <c r="C232" t="s">
         <v>1628</v>
@@ -28650,7 +28650,7 @@
         <v>6772</v>
       </c>
       <c r="B233" t="n">
-        <v>139917</v>
+        <v>171047</v>
       </c>
       <c r="C233" t="s">
         <v>1637</v>
@@ -28719,7 +28719,7 @@
         <v>6772</v>
       </c>
       <c r="B234" t="n">
-        <v>139918</v>
+        <v>171048</v>
       </c>
       <c r="C234" t="s">
         <v>1645</v>
@@ -28794,7 +28794,7 @@
         <v>6772</v>
       </c>
       <c r="B235" t="n">
-        <v>139919</v>
+        <v>171049</v>
       </c>
       <c r="C235" t="s">
         <v>1652</v>
@@ -28869,7 +28869,7 @@
         <v>6772</v>
       </c>
       <c r="B236" t="n">
-        <v>139920</v>
+        <v>171050</v>
       </c>
       <c r="C236" t="s">
         <v>1659</v>
@@ -29090,7 +29090,7 @@
         <v>6772</v>
       </c>
       <c r="B239" t="n">
-        <v>139921</v>
+        <v>171051</v>
       </c>
       <c r="C239" t="s">
         <v>1680</v>
@@ -29165,7 +29165,7 @@
         <v>6772</v>
       </c>
       <c r="B240" t="n">
-        <v>139922</v>
+        <v>171052</v>
       </c>
       <c r="C240" t="s">
         <v>1687</v>
@@ -29240,7 +29240,7 @@
         <v>6772</v>
       </c>
       <c r="B241" t="n">
-        <v>139923</v>
+        <v>171053</v>
       </c>
       <c r="C241" t="s">
         <v>1694</v>
@@ -29380,7 +29380,7 @@
         <v>6772</v>
       </c>
       <c r="B243" t="n">
-        <v>139924</v>
+        <v>171054</v>
       </c>
       <c r="C243" t="s">
         <v>1709</v>
@@ -29455,7 +29455,7 @@
         <v>6772</v>
       </c>
       <c r="B244" t="n">
-        <v>139925</v>
+        <v>171055</v>
       </c>
       <c r="C244" t="s">
         <v>1715</v>
@@ -29520,7 +29520,7 @@
         <v>6772</v>
       </c>
       <c r="B245" t="n">
-        <v>139926</v>
+        <v>171056</v>
       </c>
       <c r="C245" t="s">
         <v>1721</v>
@@ -29585,7 +29585,7 @@
         <v>6772</v>
       </c>
       <c r="B246" t="n">
-        <v>139927</v>
+        <v>171057</v>
       </c>
       <c r="C246" t="s">
         <v>1728</v>
@@ -29731,7 +29731,7 @@
         <v>6772</v>
       </c>
       <c r="B248" t="n">
-        <v>139928</v>
+        <v>171058</v>
       </c>
       <c r="C248" t="s">
         <v>1743</v>
@@ -29806,7 +29806,7 @@
         <v>6772</v>
       </c>
       <c r="B249" t="n">
-        <v>139929</v>
+        <v>171059</v>
       </c>
       <c r="C249" t="s">
         <v>1749</v>
@@ -29956,7 +29956,7 @@
         <v>6772</v>
       </c>
       <c r="B251" t="n">
-        <v>139930</v>
+        <v>171060</v>
       </c>
       <c r="C251" t="s">
         <v>1763</v>
@@ -30027,7 +30027,7 @@
         <v>6772</v>
       </c>
       <c r="B252" t="n">
-        <v>139931</v>
+        <v>171061</v>
       </c>
       <c r="C252" t="s">
         <v>1772</v>
@@ -30102,7 +30102,7 @@
         <v>6772</v>
       </c>
       <c r="B253" t="n">
-        <v>139932</v>
+        <v>171062</v>
       </c>
       <c r="C253" t="s">
         <v>1779</v>
@@ -30177,7 +30177,7 @@
         <v>6772</v>
       </c>
       <c r="B254" t="n">
-        <v>139933</v>
+        <v>171063</v>
       </c>
       <c r="C254" t="s">
         <v>1785</v>
@@ -30327,7 +30327,7 @@
         <v>6772</v>
       </c>
       <c r="B256" t="n">
-        <v>139934</v>
+        <v>171064</v>
       </c>
       <c r="C256" t="s">
         <v>1798</v>
@@ -30402,7 +30402,7 @@
         <v>6772</v>
       </c>
       <c r="B257" t="n">
-        <v>139935</v>
+        <v>171065</v>
       </c>
       <c r="C257" t="s">
         <v>1804</v>
@@ -30477,7 +30477,7 @@
         <v>6772</v>
       </c>
       <c r="B258" t="n">
-        <v>139936</v>
+        <v>171066</v>
       </c>
       <c r="C258" t="s">
         <v>1811</v>
@@ -30552,7 +30552,7 @@
         <v>6772</v>
       </c>
       <c r="B259" t="n">
-        <v>139937</v>
+        <v>171067</v>
       </c>
       <c r="C259" t="s">
         <v>1818</v>
@@ -30627,7 +30627,7 @@
         <v>6772</v>
       </c>
       <c r="B260" t="n">
-        <v>139938</v>
+        <v>171068</v>
       </c>
       <c r="C260" t="s">
         <v>1825</v>
@@ -30702,7 +30702,7 @@
         <v>6772</v>
       </c>
       <c r="B261" t="n">
-        <v>139939</v>
+        <v>171069</v>
       </c>
       <c r="C261" t="s">
         <v>1834</v>
@@ -30777,7 +30777,7 @@
         <v>6772</v>
       </c>
       <c r="B262" t="n">
-        <v>139940</v>
+        <v>171070</v>
       </c>
       <c r="C262" t="s">
         <v>1841</v>
@@ -30842,7 +30842,7 @@
         <v>6772</v>
       </c>
       <c r="B263" t="n">
-        <v>139941</v>
+        <v>171071</v>
       </c>
       <c r="C263" t="s">
         <v>1848</v>
@@ -30917,7 +30917,7 @@
         <v>6772</v>
       </c>
       <c r="B264" t="n">
-        <v>139942</v>
+        <v>171072</v>
       </c>
       <c r="C264" t="s">
         <v>1855</v>
@@ -30982,7 +30982,7 @@
         <v>6772</v>
       </c>
       <c r="B265" t="n">
-        <v>139943</v>
+        <v>171073</v>
       </c>
       <c r="C265" t="s">
         <v>1864</v>
@@ -31057,7 +31057,7 @@
         <v>6772</v>
       </c>
       <c r="B266" t="n">
-        <v>139944</v>
+        <v>171074</v>
       </c>
       <c r="C266" t="s">
         <v>1871</v>
@@ -31128,7 +31128,7 @@
         <v>6772</v>
       </c>
       <c r="B267" t="n">
-        <v>139945</v>
+        <v>171075</v>
       </c>
       <c r="C267" t="s">
         <v>1879</v>
@@ -31493,7 +31493,7 @@
         <v>6772</v>
       </c>
       <c r="B272" t="n">
-        <v>139946</v>
+        <v>171076</v>
       </c>
       <c r="C272" t="s">
         <v>1914</v>
@@ -31639,7 +31639,7 @@
         <v>6772</v>
       </c>
       <c r="B274" t="n">
-        <v>139947</v>
+        <v>171077</v>
       </c>
       <c r="C274" t="s">
         <v>1929</v>
@@ -31714,7 +31714,7 @@
         <v>6772</v>
       </c>
       <c r="B275" t="n">
-        <v>139948</v>
+        <v>171078</v>
       </c>
       <c r="C275" t="s">
         <v>1935</v>
@@ -31789,7 +31789,7 @@
         <v>6772</v>
       </c>
       <c r="B276" t="n">
-        <v>139949</v>
+        <v>171079</v>
       </c>
       <c r="C276" t="s">
         <v>1942</v>
@@ -31939,7 +31939,7 @@
         <v>6772</v>
       </c>
       <c r="B278" t="n">
-        <v>139950</v>
+        <v>171080</v>
       </c>
       <c r="C278" t="s">
         <v>1956</v>
@@ -32081,7 +32081,7 @@
         <v>6772</v>
       </c>
       <c r="B280" t="n">
-        <v>139951</v>
+        <v>171081</v>
       </c>
       <c r="C280" t="s">
         <v>1969</v>
@@ -32156,7 +32156,7 @@
         <v>6772</v>
       </c>
       <c r="B281" t="n">
-        <v>139952</v>
+        <v>171082</v>
       </c>
       <c r="C281" t="s">
         <v>1975</v>
@@ -32231,7 +32231,7 @@
         <v>6772</v>
       </c>
       <c r="B282" t="n">
-        <v>139953</v>
+        <v>171083</v>
       </c>
       <c r="C282" t="s">
         <v>1984</v>
@@ -32306,7 +32306,7 @@
         <v>6772</v>
       </c>
       <c r="B283" t="n">
-        <v>139954</v>
+        <v>171084</v>
       </c>
       <c r="C283" t="s">
         <v>1989</v>
@@ -32736,7 +32736,7 @@
         <v>6772</v>
       </c>
       <c r="B289" t="n">
-        <v>139955</v>
+        <v>171085</v>
       </c>
       <c r="C289" t="s">
         <v>2031</v>
@@ -32811,7 +32811,7 @@
         <v>6772</v>
       </c>
       <c r="B290" t="n">
-        <v>139956</v>
+        <v>171086</v>
       </c>
       <c r="C290" t="s">
         <v>2037</v>
@@ -32886,7 +32886,7 @@
         <v>6772</v>
       </c>
       <c r="B291" t="n">
-        <v>139957</v>
+        <v>171087</v>
       </c>
       <c r="C291" t="s">
         <v>2043</v>
@@ -32957,7 +32957,7 @@
         <v>6772</v>
       </c>
       <c r="B292" t="n">
-        <v>139958</v>
+        <v>171088</v>
       </c>
       <c r="C292" t="s">
         <v>2049</v>
@@ -33107,7 +33107,7 @@
         <v>6772</v>
       </c>
       <c r="B294" t="n">
-        <v>139959</v>
+        <v>171089</v>
       </c>
       <c r="C294" t="s">
         <v>2063</v>
@@ -33182,7 +33182,7 @@
         <v>6772</v>
       </c>
       <c r="B295" t="n">
-        <v>139960</v>
+        <v>171090</v>
       </c>
       <c r="C295" t="s">
         <v>2069</v>
@@ -33326,7 +33326,7 @@
         <v>6772</v>
       </c>
       <c r="B297" t="n">
-        <v>139961</v>
+        <v>171091</v>
       </c>
       <c r="C297" t="s">
         <v>2085</v>
@@ -33401,7 +33401,7 @@
         <v>6772</v>
       </c>
       <c r="B298" t="n">
-        <v>139962</v>
+        <v>171092</v>
       </c>
       <c r="C298" t="s">
         <v>2091</v>
@@ -33470,7 +33470,7 @@
         <v>6772</v>
       </c>
       <c r="B299" t="n">
-        <v>139963</v>
+        <v>171093</v>
       </c>
       <c r="C299" t="s">
         <v>2097</v>
@@ -33545,7 +33545,7 @@
         <v>6772</v>
       </c>
       <c r="B300" t="n">
-        <v>139964</v>
+        <v>171094</v>
       </c>
       <c r="C300" t="s">
         <v>2104</v>
@@ -33691,7 +33691,7 @@
         <v>6772</v>
       </c>
       <c r="B302" t="n">
-        <v>139965</v>
+        <v>171095</v>
       </c>
       <c r="C302" t="s">
         <v>2116</v>
@@ -33766,7 +33766,7 @@
         <v>6772</v>
       </c>
       <c r="B303" t="n">
-        <v>139966</v>
+        <v>171096</v>
       </c>
       <c r="C303" t="s">
         <v>2123</v>
@@ -33916,7 +33916,7 @@
         <v>6772</v>
       </c>
       <c r="B305" t="n">
-        <v>139967</v>
+        <v>171097</v>
       </c>
       <c r="C305" t="s">
         <v>2135</v>
@@ -33991,7 +33991,7 @@
         <v>6772</v>
       </c>
       <c r="B306" t="n">
-        <v>139968</v>
+        <v>171098</v>
       </c>
       <c r="C306" t="s">
         <v>2142</v>
@@ -34066,7 +34066,7 @@
         <v>6772</v>
       </c>
       <c r="B307" t="n">
-        <v>139969</v>
+        <v>171099</v>
       </c>
       <c r="C307" t="s">
         <v>2148</v>
@@ -34216,7 +34216,7 @@
         <v>6772</v>
       </c>
       <c r="B309" t="n">
-        <v>139970</v>
+        <v>171100</v>
       </c>
       <c r="C309" t="s">
         <v>2164</v>
@@ -34291,7 +34291,7 @@
         <v>6772</v>
       </c>
       <c r="B310" t="n">
-        <v>139971</v>
+        <v>171101</v>
       </c>
       <c r="C310" t="s">
         <v>2170</v>
@@ -34360,7 +34360,7 @@
         <v>6772</v>
       </c>
       <c r="B311" t="n">
-        <v>139972</v>
+        <v>171102</v>
       </c>
       <c r="C311" t="s">
         <v>2176</v>
@@ -34435,7 +34435,7 @@
         <v>6772</v>
       </c>
       <c r="B312" t="n">
-        <v>139973</v>
+        <v>171103</v>
       </c>
       <c r="C312" t="s">
         <v>2185</v>
@@ -34510,7 +34510,7 @@
         <v>6772</v>
       </c>
       <c r="B313" t="n">
-        <v>139974</v>
+        <v>171104</v>
       </c>
       <c r="C313" t="s">
         <v>2191</v>
@@ -34579,7 +34579,7 @@
         <v>6772</v>
       </c>
       <c r="B314" t="n">
-        <v>139975</v>
+        <v>171105</v>
       </c>
       <c r="C314" t="s">
         <v>2198</v>
@@ -34723,7 +34723,7 @@
         <v>6772</v>
       </c>
       <c r="B316" t="n">
-        <v>139976</v>
+        <v>171106</v>
       </c>
       <c r="C316" t="s">
         <v>2211</v>
@@ -34788,7 +34788,7 @@
         <v>6772</v>
       </c>
       <c r="B317" t="n">
-        <v>139977</v>
+        <v>171107</v>
       </c>
       <c r="C317" t="s">
         <v>2218</v>
@@ -34863,7 +34863,7 @@
         <v>6772</v>
       </c>
       <c r="B318" t="n">
-        <v>139978</v>
+        <v>171108</v>
       </c>
       <c r="C318" t="s">
         <v>2227</v>
@@ -34928,7 +34928,7 @@
         <v>6772</v>
       </c>
       <c r="B319" t="n">
-        <v>139979</v>
+        <v>171109</v>
       </c>
       <c r="C319" t="s">
         <v>2233</v>
@@ -35143,7 +35143,7 @@
         <v>6772</v>
       </c>
       <c r="B322" t="n">
-        <v>139980</v>
+        <v>171110</v>
       </c>
       <c r="C322" t="s">
         <v>2254</v>
@@ -35218,7 +35218,7 @@
         <v>6772</v>
       </c>
       <c r="B323" t="n">
-        <v>139981</v>
+        <v>171111</v>
       </c>
       <c r="C323" t="s">
         <v>2260</v>
@@ -35364,7 +35364,7 @@
         <v>6772</v>
       </c>
       <c r="B325" t="n">
-        <v>139982</v>
+        <v>171112</v>
       </c>
       <c r="C325" t="s">
         <v>2274</v>
@@ -35439,7 +35439,7 @@
         <v>6772</v>
       </c>
       <c r="B326" t="n">
-        <v>139983</v>
+        <v>171113</v>
       </c>
       <c r="C326" t="s">
         <v>2280</v>
@@ -35729,7 +35729,7 @@
         <v>6772</v>
       </c>
       <c r="B330" t="n">
-        <v>139984</v>
+        <v>171114</v>
       </c>
       <c r="C330" t="s">
         <v>2304</v>
@@ -35869,7 +35869,7 @@
         <v>6772</v>
       </c>
       <c r="B332" t="n">
-        <v>139985</v>
+        <v>171115</v>
       </c>
       <c r="C332" t="s">
         <v>2320</v>
@@ -35940,7 +35940,7 @@
         <v>6772</v>
       </c>
       <c r="B333" t="n">
-        <v>139986</v>
+        <v>171116</v>
       </c>
       <c r="C333" t="s">
         <v>2327</v>
@@ -36005,7 +36005,7 @@
         <v>6772</v>
       </c>
       <c r="B334" t="n">
-        <v>139987</v>
+        <v>171117</v>
       </c>
       <c r="C334" t="s">
         <v>2333</v>
@@ -36224,7 +36224,7 @@
         <v>6772</v>
       </c>
       <c r="B337" t="n">
-        <v>139988</v>
+        <v>171118</v>
       </c>
       <c r="C337" t="s">
         <v>2356</v>
@@ -36293,7 +36293,7 @@
         <v>6772</v>
       </c>
       <c r="B338" t="n">
-        <v>139989</v>
+        <v>171119</v>
       </c>
       <c r="C338" t="s">
         <v>2362</v>
@@ -36518,7 +36518,7 @@
         <v>6772</v>
       </c>
       <c r="B341" t="n">
-        <v>139990</v>
+        <v>171120</v>
       </c>
       <c r="C341" t="s">
         <v>2382</v>
@@ -36583,7 +36583,7 @@
         <v>6772</v>
       </c>
       <c r="B342" t="n">
-        <v>139991</v>
+        <v>171121</v>
       </c>
       <c r="C342" t="s">
         <v>2389</v>
@@ -36648,7 +36648,7 @@
         <v>6772</v>
       </c>
       <c r="B343" t="n">
-        <v>139992</v>
+        <v>171122</v>
       </c>
       <c r="C343" t="s">
         <v>2395</v>
@@ -36863,7 +36863,7 @@
         <v>6772</v>
       </c>
       <c r="B346" t="n">
-        <v>139993</v>
+        <v>171123</v>
       </c>
       <c r="C346" t="s">
         <v>2415</v>
@@ -37153,7 +37153,7 @@
         <v>6772</v>
       </c>
       <c r="B350" t="n">
-        <v>139994</v>
+        <v>171124</v>
       </c>
       <c r="C350" t="s">
         <v>2441</v>
@@ -37218,7 +37218,7 @@
         <v>6772</v>
       </c>
       <c r="B351" t="n">
-        <v>139995</v>
+        <v>171125</v>
       </c>
       <c r="C351" t="s">
         <v>2450</v>
@@ -37368,7 +37368,7 @@
         <v>6772</v>
       </c>
       <c r="B353" t="n">
-        <v>139996</v>
+        <v>171126</v>
       </c>
       <c r="C353" t="s">
         <v>2462</v>
@@ -37443,7 +37443,7 @@
         <v>6772</v>
       </c>
       <c r="B354" t="n">
-        <v>139997</v>
+        <v>171127</v>
       </c>
       <c r="C354" t="s">
         <v>2471</v>
@@ -37518,7 +37518,7 @@
         <v>6772</v>
       </c>
       <c r="B355" t="n">
-        <v>139998</v>
+        <v>171128</v>
       </c>
       <c r="C355" t="s">
         <v>2478</v>
@@ -37593,7 +37593,7 @@
         <v>6772</v>
       </c>
       <c r="B356" t="n">
-        <v>139999</v>
+        <v>171129</v>
       </c>
       <c r="C356" t="s">
         <v>2487</v>
@@ -37664,7 +37664,7 @@
         <v>6772</v>
       </c>
       <c r="B357" t="n">
-        <v>140000</v>
+        <v>171130</v>
       </c>
       <c r="C357" t="s">
         <v>2497</v>
@@ -37889,7 +37889,7 @@
         <v>6772</v>
       </c>
       <c r="B360" t="n">
-        <v>140001</v>
+        <v>171131</v>
       </c>
       <c r="C360" t="s">
         <v>2518</v>
@@ -37964,7 +37964,7 @@
         <v>6772</v>
       </c>
       <c r="B361" t="n">
-        <v>140002</v>
+        <v>171132</v>
       </c>
       <c r="C361" t="s">
         <v>2525</v>
@@ -38039,7 +38039,7 @@
         <v>6772</v>
       </c>
       <c r="B362" t="n">
-        <v>140003</v>
+        <v>171133</v>
       </c>
       <c r="C362" t="s">
         <v>2532</v>
@@ -38114,7 +38114,7 @@
         <v>6772</v>
       </c>
       <c r="B363" t="n">
-        <v>140004</v>
+        <v>171134</v>
       </c>
       <c r="C363" t="s">
         <v>2541</v>
@@ -38179,7 +38179,7 @@
         <v>6772</v>
       </c>
       <c r="B364" t="n">
-        <v>140005</v>
+        <v>171135</v>
       </c>
       <c r="C364" t="s">
         <v>2548</v>
@@ -38250,7 +38250,7 @@
         <v>6772</v>
       </c>
       <c r="B365" t="n">
-        <v>140006</v>
+        <v>171136</v>
       </c>
       <c r="C365" t="s">
         <v>2554</v>
@@ -38400,7 +38400,7 @@
         <v>6772</v>
       </c>
       <c r="B367" t="n">
-        <v>140007</v>
+        <v>171137</v>
       </c>
       <c r="C367" t="s">
         <v>2567</v>
@@ -38625,7 +38625,7 @@
         <v>6772</v>
       </c>
       <c r="B370" t="n">
-        <v>140008</v>
+        <v>171138</v>
       </c>
       <c r="C370" t="s">
         <v>2592</v>
@@ -38700,7 +38700,7 @@
         <v>6772</v>
       </c>
       <c r="B371" t="n">
-        <v>140009</v>
+        <v>171139</v>
       </c>
       <c r="C371" t="s">
         <v>2600</v>
@@ -38775,7 +38775,7 @@
         <v>6772</v>
       </c>
       <c r="B372" t="n">
-        <v>140010</v>
+        <v>171140</v>
       </c>
       <c r="C372" t="s">
         <v>2607</v>
@@ -38844,7 +38844,7 @@
         <v>6772</v>
       </c>
       <c r="B373" t="n">
-        <v>140011</v>
+        <v>171141</v>
       </c>
       <c r="C373" t="s">
         <v>2614</v>
@@ -38919,7 +38919,7 @@
         <v>6772</v>
       </c>
       <c r="B374" t="n">
-        <v>140012</v>
+        <v>171142</v>
       </c>
       <c r="C374" t="s">
         <v>2621</v>
@@ -38994,7 +38994,7 @@
         <v>6772</v>
       </c>
       <c r="B375" t="n">
-        <v>140013</v>
+        <v>171143</v>
       </c>
       <c r="C375" t="s">
         <v>2628</v>
@@ -39065,7 +39065,7 @@
         <v>6772</v>
       </c>
       <c r="B376" t="n">
-        <v>140014</v>
+        <v>171144</v>
       </c>
       <c r="C376" t="s">
         <v>2637</v>
@@ -39140,7 +39140,7 @@
         <v>6772</v>
       </c>
       <c r="B377" t="n">
-        <v>140015</v>
+        <v>171145</v>
       </c>
       <c r="C377" t="s">
         <v>2644</v>
@@ -39215,7 +39215,7 @@
         <v>6772</v>
       </c>
       <c r="B378" t="n">
-        <v>140016</v>
+        <v>171146</v>
       </c>
       <c r="C378" t="s">
         <v>2651</v>
@@ -39280,7 +39280,7 @@
         <v>6772</v>
       </c>
       <c r="B379" t="n">
-        <v>140017</v>
+        <v>171147</v>
       </c>
       <c r="C379" t="s">
         <v>2658</v>
@@ -39351,7 +39351,7 @@
         <v>6772</v>
       </c>
       <c r="B380" t="n">
-        <v>140018</v>
+        <v>171148</v>
       </c>
       <c r="C380" t="s">
         <v>2664</v>
@@ -39420,7 +39420,7 @@
         <v>6772</v>
       </c>
       <c r="B381" t="n">
-        <v>140019</v>
+        <v>171149</v>
       </c>
       <c r="C381" t="s">
         <v>2671</v>
@@ -39495,7 +39495,7 @@
         <v>6772</v>
       </c>
       <c r="B382" t="n">
-        <v>140020</v>
+        <v>171150</v>
       </c>
       <c r="C382" t="s">
         <v>2678</v>
@@ -39570,7 +39570,7 @@
         <v>6772</v>
       </c>
       <c r="B383" t="n">
-        <v>140021</v>
+        <v>171151</v>
       </c>
       <c r="C383" t="s">
         <v>2685</v>
@@ -39720,7 +39720,7 @@
         <v>6772</v>
       </c>
       <c r="B385" t="n">
-        <v>140022</v>
+        <v>171152</v>
       </c>
       <c r="C385" t="s">
         <v>2701</v>
@@ -39789,7 +39789,7 @@
         <v>6772</v>
       </c>
       <c r="B386" t="n">
-        <v>140023</v>
+        <v>171153</v>
       </c>
       <c r="C386" t="s">
         <v>2710</v>
@@ -39864,7 +39864,7 @@
         <v>6772</v>
       </c>
       <c r="B387" t="n">
-        <v>140024</v>
+        <v>171154</v>
       </c>
       <c r="C387" t="s">
         <v>2717</v>
@@ -39939,7 +39939,7 @@
         <v>6772</v>
       </c>
       <c r="B388" t="n">
-        <v>140025</v>
+        <v>171155</v>
       </c>
       <c r="C388" t="s">
         <v>2723</v>
@@ -40010,7 +40010,7 @@
         <v>6772</v>
       </c>
       <c r="B389" t="n">
-        <v>140026</v>
+        <v>171156</v>
       </c>
       <c r="C389" t="s">
         <v>2730</v>
@@ -40085,7 +40085,7 @@
         <v>6772</v>
       </c>
       <c r="B390" t="n">
-        <v>140027</v>
+        <v>171157</v>
       </c>
       <c r="C390" t="s">
         <v>2739</v>
@@ -40160,7 +40160,7 @@
         <v>6772</v>
       </c>
       <c r="B391" t="n">
-        <v>140028</v>
+        <v>171158</v>
       </c>
       <c r="C391" t="s">
         <v>2746</v>
@@ -40235,7 +40235,7 @@
         <v>6772</v>
       </c>
       <c r="B392" t="n">
-        <v>140029</v>
+        <v>171159</v>
       </c>
       <c r="C392" t="s">
         <v>2753</v>
@@ -40310,7 +40310,7 @@
         <v>6772</v>
       </c>
       <c r="B393" t="n">
-        <v>140030</v>
+        <v>171160</v>
       </c>
       <c r="C393" t="s">
         <v>2762</v>
@@ -40450,7 +40450,7 @@
         <v>6772</v>
       </c>
       <c r="B395" t="n">
-        <v>140031</v>
+        <v>171161</v>
       </c>
       <c r="C395" t="s">
         <v>2773</v>
@@ -40525,7 +40525,7 @@
         <v>6772</v>
       </c>
       <c r="B396" t="n">
-        <v>140032</v>
+        <v>171162</v>
       </c>
       <c r="C396" t="s">
         <v>2782</v>
@@ -40600,7 +40600,7 @@
         <v>6772</v>
       </c>
       <c r="B397" t="n">
-        <v>140033</v>
+        <v>171163</v>
       </c>
       <c r="C397" t="s">
         <v>2789</v>
@@ -40675,7 +40675,7 @@
         <v>6772</v>
       </c>
       <c r="B398" t="n">
-        <v>140034</v>
+        <v>171164</v>
       </c>
       <c r="C398" t="s">
         <v>2795</v>
@@ -40750,7 +40750,7 @@
         <v>6772</v>
       </c>
       <c r="B399" t="n">
-        <v>140035</v>
+        <v>171165</v>
       </c>
       <c r="C399" t="s">
         <v>2802</v>
@@ -40975,7 +40975,7 @@
         <v>6772</v>
       </c>
       <c r="B402" t="n">
-        <v>140036</v>
+        <v>171166</v>
       </c>
       <c r="C402" t="s">
         <v>2826</v>
@@ -41050,7 +41050,7 @@
         <v>6772</v>
       </c>
       <c r="B403" t="n">
-        <v>140037</v>
+        <v>171167</v>
       </c>
       <c r="C403" t="s">
         <v>2832</v>
@@ -41115,7 +41115,7 @@
         <v>6772</v>
       </c>
       <c r="B404" t="n">
-        <v>140038</v>
+        <v>171168</v>
       </c>
       <c r="C404" t="s">
         <v>2838</v>
@@ -41336,7 +41336,7 @@
         <v>6772</v>
       </c>
       <c r="B407" t="n">
-        <v>140039</v>
+        <v>171169</v>
       </c>
       <c r="C407" t="s">
         <v>2860</v>
@@ -41405,7 +41405,7 @@
         <v>6772</v>
       </c>
       <c r="B408" t="n">
-        <v>140040</v>
+        <v>171170</v>
       </c>
       <c r="C408" t="s">
         <v>2867</v>
@@ -41551,7 +41551,7 @@
         <v>6772</v>
       </c>
       <c r="B410" t="n">
-        <v>140041</v>
+        <v>171171</v>
       </c>
       <c r="C410" t="s">
         <v>2883</v>
@@ -41626,7 +41626,7 @@
         <v>6772</v>
       </c>
       <c r="B411" t="n">
-        <v>140042</v>
+        <v>171172</v>
       </c>
       <c r="C411" t="s">
         <v>2892</v>
@@ -41851,7 +41851,7 @@
         <v>6772</v>
       </c>
       <c r="B414" t="n">
-        <v>140043</v>
+        <v>171173</v>
       </c>
       <c r="C414" t="s">
         <v>2912</v>
@@ -41926,7 +41926,7 @@
         <v>6772</v>
       </c>
       <c r="B415" t="n">
-        <v>140044</v>
+        <v>171174</v>
       </c>
       <c r="C415" t="s">
         <v>2919</v>
@@ -42072,7 +42072,7 @@
         <v>6772</v>
       </c>
       <c r="B417" t="n">
-        <v>140045</v>
+        <v>171175</v>
       </c>
       <c r="C417" t="s">
         <v>2933</v>
@@ -42356,7 +42356,7 @@
         <v>6772</v>
       </c>
       <c r="B421" t="n">
-        <v>140046</v>
+        <v>139901</v>
       </c>
       <c r="C421" t="s">
         <v>2961</v>
@@ -42431,7 +42431,7 @@
         <v>6772</v>
       </c>
       <c r="B422" t="n">
-        <v>140047</v>
+        <v>171176</v>
       </c>
       <c r="C422" t="s">
         <v>2968</v>
@@ -42650,7 +42650,7 @@
         <v>6772</v>
       </c>
       <c r="B425" t="n">
-        <v>140048</v>
+        <v>171177</v>
       </c>
       <c r="C425" t="s">
         <v>2990</v>
@@ -42725,7 +42725,7 @@
         <v>6772</v>
       </c>
       <c r="B426" t="n">
-        <v>140049</v>
+        <v>171178</v>
       </c>
       <c r="C426" t="s">
         <v>2999</v>
@@ -42863,7 +42863,7 @@
         <v>6772</v>
       </c>
       <c r="B428" t="n">
-        <v>140050</v>
+        <v>171179</v>
       </c>
       <c r="C428" t="s">
         <v>3014</v>
@@ -42930,7 +42930,7 @@
         <v>6772</v>
       </c>
       <c r="B429" t="n">
-        <v>140051</v>
+        <v>171180</v>
       </c>
       <c r="C429" t="s">
         <v>3021</v>
@@ -43147,7 +43147,7 @@
         <v>6772</v>
       </c>
       <c r="B432" t="n">
-        <v>140052</v>
+        <v>171181</v>
       </c>
       <c r="C432" t="s">
         <v>3045</v>
@@ -43291,7 +43291,7 @@
         <v>6772</v>
       </c>
       <c r="B434" t="n">
-        <v>140053</v>
+        <v>171182</v>
       </c>
       <c r="C434" t="s">
         <v>3058</v>
@@ -43356,7 +43356,7 @@
         <v>6772</v>
       </c>
       <c r="B435" t="n">
-        <v>140054</v>
+        <v>171183</v>
       </c>
       <c r="C435" t="s">
         <v>3067</v>
@@ -43502,7 +43502,7 @@
         <v>6772</v>
       </c>
       <c r="B437" t="n">
-        <v>140055</v>
+        <v>171184</v>
       </c>
       <c r="C437" t="s">
         <v>3082</v>
@@ -43573,7 +43573,7 @@
         <v>6772</v>
       </c>
       <c r="B438" t="n">
-        <v>140056</v>
+        <v>171185</v>
       </c>
       <c r="C438" t="s">
         <v>3091</v>
@@ -43719,7 +43719,7 @@
         <v>6772</v>
       </c>
       <c r="B440" t="n">
-        <v>140057</v>
+        <v>171186</v>
       </c>
       <c r="C440" t="s">
         <v>3106</v>
@@ -43780,7 +43780,7 @@
         <v>6772</v>
       </c>
       <c r="B441" t="n">
-        <v>140058</v>
+        <v>171187</v>
       </c>
       <c r="C441" t="s">
         <v>3113</v>
@@ -43841,7 +43841,7 @@
         <v>6772</v>
       </c>
       <c r="B442" t="n">
-        <v>140059</v>
+        <v>171188</v>
       </c>
       <c r="C442" t="s">
         <v>3120</v>
@@ -43916,7 +43916,7 @@
         <v>6772</v>
       </c>
       <c r="B443" t="n">
-        <v>140060</v>
+        <v>171189</v>
       </c>
       <c r="C443" t="s">
         <v>3127</v>
@@ -44125,7 +44125,7 @@
         <v>6772</v>
       </c>
       <c r="B446" t="n">
-        <v>140061</v>
+        <v>171190</v>
       </c>
       <c r="C446" t="s">
         <v>3152</v>
@@ -44265,7 +44265,7 @@
         <v>6772</v>
       </c>
       <c r="B448" t="n">
-        <v>140062</v>
+        <v>171191</v>
       </c>
       <c r="C448" t="s">
         <v>3167</v>
@@ -44340,7 +44340,7 @@
         <v>6772</v>
       </c>
       <c r="B449" t="n">
-        <v>140063</v>
+        <v>171192</v>
       </c>
       <c r="C449" t="s">
         <v>3173</v>
@@ -44490,7 +44490,7 @@
         <v>6772</v>
       </c>
       <c r="B451" t="n">
-        <v>140064</v>
+        <v>171193</v>
       </c>
       <c r="C451" t="s">
         <v>3186</v>
@@ -44565,7 +44565,7 @@
         <v>6772</v>
       </c>
       <c r="B452" t="n">
-        <v>140065</v>
+        <v>171194</v>
       </c>
       <c r="C452" t="s">
         <v>3195</v>
@@ -44640,7 +44640,7 @@
         <v>6772</v>
       </c>
       <c r="B453" t="n">
-        <v>140066</v>
+        <v>171195</v>
       </c>
       <c r="C453" t="s">
         <v>3201</v>
@@ -44715,7 +44715,7 @@
         <v>6772</v>
       </c>
       <c r="B454" t="n">
-        <v>140067</v>
+        <v>171196</v>
       </c>
       <c r="C454" t="s">
         <v>3208</v>
@@ -44865,7 +44865,7 @@
         <v>6772</v>
       </c>
       <c r="B456" t="n">
-        <v>140068</v>
+        <v>171197</v>
       </c>
       <c r="C456" t="s">
         <v>3222</v>
@@ -44940,7 +44940,7 @@
         <v>6772</v>
       </c>
       <c r="B457" t="n">
-        <v>140069</v>
+        <v>171198</v>
       </c>
       <c r="C457" t="s">
         <v>3229</v>
@@ -45015,7 +45015,7 @@
         <v>6772</v>
       </c>
       <c r="B458" t="n">
-        <v>140070</v>
+        <v>171199</v>
       </c>
       <c r="C458" t="s">
         <v>3236</v>
@@ -45163,7 +45163,7 @@
         <v>6772</v>
       </c>
       <c r="B460" t="n">
-        <v>140071</v>
+        <v>171200</v>
       </c>
       <c r="C460" t="s">
         <v>3251</v>
@@ -45238,7 +45238,7 @@
         <v>6772</v>
       </c>
       <c r="B461" t="n">
-        <v>140072</v>
+        <v>171201</v>
       </c>
       <c r="C461" t="s">
         <v>3257</v>
@@ -45378,7 +45378,7 @@
         <v>6772</v>
       </c>
       <c r="B463" t="n">
-        <v>140073</v>
+        <v>171202</v>
       </c>
       <c r="C463" t="s">
         <v>3271</v>
@@ -45453,7 +45453,7 @@
         <v>6772</v>
       </c>
       <c r="B464" t="n">
-        <v>140074</v>
+        <v>171203</v>
       </c>
       <c r="C464" t="s">
         <v>3277</v>
@@ -45603,7 +45603,7 @@
         <v>6772</v>
       </c>
       <c r="B466" t="n">
-        <v>140075</v>
+        <v>171204</v>
       </c>
       <c r="C466" t="s">
         <v>3292</v>
@@ -45747,7 +45747,7 @@
         <v>6772</v>
       </c>
       <c r="B468" t="n">
-        <v>140076</v>
+        <v>171205</v>
       </c>
       <c r="C468" t="s">
         <v>3305</v>
@@ -46043,7 +46043,7 @@
         <v>6772</v>
       </c>
       <c r="B472" t="n">
-        <v>140077</v>
+        <v>171206</v>
       </c>
       <c r="C472" t="s">
         <v>3334</v>
@@ -46183,7 +46183,7 @@
         <v>6772</v>
       </c>
       <c r="B474" t="n">
-        <v>140078</v>
+        <v>171207</v>
       </c>
       <c r="C474" t="s">
         <v>3347</v>
@@ -46258,7 +46258,7 @@
         <v>6772</v>
       </c>
       <c r="B475" t="n">
-        <v>140079</v>
+        <v>171208</v>
       </c>
       <c r="C475" t="s">
         <v>3353</v>
@@ -46329,7 +46329,7 @@
         <v>6772</v>
       </c>
       <c r="B476" t="n">
-        <v>140080</v>
+        <v>171209</v>
       </c>
       <c r="C476" t="s">
         <v>3363</v>
@@ -46479,7 +46479,7 @@
         <v>6772</v>
       </c>
       <c r="B478" t="n">
-        <v>140081</v>
+        <v>171210</v>
       </c>
       <c r="C478" t="s">
         <v>3376</v>
@@ -46611,7 +46611,7 @@
         <v>6772</v>
       </c>
       <c r="B480" t="n">
-        <v>140082</v>
+        <v>171211</v>
       </c>
       <c r="C480" t="s">
         <v>3392</v>
@@ -46686,7 +46686,7 @@
         <v>6772</v>
       </c>
       <c r="B481" t="n">
-        <v>140083</v>
+        <v>171212</v>
       </c>
       <c r="C481" t="s">
         <v>3401</v>
@@ -46755,7 +46755,7 @@
         <v>6772</v>
       </c>
       <c r="B482" t="n">
-        <v>140084</v>
+        <v>171213</v>
       </c>
       <c r="C482" t="s">
         <v>3408</v>
@@ -46895,7 +46895,7 @@
         <v>6772</v>
       </c>
       <c r="B484" t="n">
-        <v>140085</v>
+        <v>171214</v>
       </c>
       <c r="C484" t="s">
         <v>3424</v>
@@ -46970,7 +46970,7 @@
         <v>6772</v>
       </c>
       <c r="B485" t="n">
-        <v>140086</v>
+        <v>171215</v>
       </c>
       <c r="C485" t="s">
         <v>3431</v>
@@ -47110,7 +47110,7 @@
         <v>6772</v>
       </c>
       <c r="B487" t="n">
-        <v>140087</v>
+        <v>171216</v>
       </c>
       <c r="C487" t="s">
         <v>3447</v>
@@ -47181,7 +47181,7 @@
         <v>6772</v>
       </c>
       <c r="B488" t="n">
-        <v>140088</v>
+        <v>171217</v>
       </c>
       <c r="C488" t="s">
         <v>3453</v>
@@ -47327,7 +47327,7 @@
         <v>6772</v>
       </c>
       <c r="B490" t="n">
-        <v>140089</v>
+        <v>171218</v>
       </c>
       <c r="C490" t="s">
         <v>3469</v>
@@ -47402,7 +47402,7 @@
         <v>6772</v>
       </c>
       <c r="B491" t="n">
-        <v>140090</v>
+        <v>171219</v>
       </c>
       <c r="C491" t="s">
         <v>3478</v>
@@ -47538,7 +47538,7 @@
         <v>6772</v>
       </c>
       <c r="B493" t="n">
-        <v>140091</v>
+        <v>171220</v>
       </c>
       <c r="C493" t="s">
         <v>3494</v>
@@ -47613,7 +47613,7 @@
         <v>6772</v>
       </c>
       <c r="B494" t="n">
-        <v>140092</v>
+        <v>171221</v>
       </c>
       <c r="C494" t="s">
         <v>3500</v>
@@ -47688,7 +47688,7 @@
         <v>6772</v>
       </c>
       <c r="B495" t="n">
-        <v>140093</v>
+        <v>171222</v>
       </c>
       <c r="C495" t="s">
         <v>3506</v>
@@ -47753,7 +47753,7 @@
         <v>6772</v>
       </c>
       <c r="B496" t="n">
-        <v>140094</v>
+        <v>171223</v>
       </c>
       <c r="C496" t="s">
         <v>3513</v>
@@ -47958,7 +47958,7 @@
         <v>6772</v>
       </c>
       <c r="B499" t="n">
-        <v>140095</v>
+        <v>171224</v>
       </c>
       <c r="C499" t="s">
         <v>3536</v>
@@ -48183,7 +48183,7 @@
         <v>6772</v>
       </c>
       <c r="B502" t="n">
-        <v>140096</v>
+        <v>171225</v>
       </c>
       <c r="C502" t="s">
         <v>3555</v>
@@ -48254,7 +48254,7 @@
         <v>6772</v>
       </c>
       <c r="B503" t="n">
-        <v>140045</v>
+        <v>139901</v>
       </c>
       <c r="C503" t="s">
         <v>2961</v>
@@ -48394,7 +48394,7 @@
         <v>6772</v>
       </c>
       <c r="B505" t="n">
-        <v>140097</v>
+        <v>171226</v>
       </c>
       <c r="C505" t="s">
         <v>3576</v>
@@ -48459,7 +48459,7 @@
         <v>6772</v>
       </c>
       <c r="B506" t="n">
-        <v>140098</v>
+        <v>171227</v>
       </c>
       <c r="C506" t="s">
         <v>3582</v>
@@ -48524,7 +48524,7 @@
         <v>6772</v>
       </c>
       <c r="B507" t="n">
-        <v>140099</v>
+        <v>171228</v>
       </c>
       <c r="C507" t="s">
         <v>3588</v>
@@ -48599,7 +48599,7 @@
         <v>6772</v>
       </c>
       <c r="B508" t="n">
-        <v>140100</v>
+        <v>171229</v>
       </c>
       <c r="C508" t="s">
         <v>3595</v>
@@ -48674,7 +48674,7 @@
         <v>6772</v>
       </c>
       <c r="B509" t="n">
-        <v>140101</v>
+        <v>171230</v>
       </c>
       <c r="C509" t="s">
         <v>3601</v>
@@ -48749,7 +48749,7 @@
         <v>6772</v>
       </c>
       <c r="B510" t="n">
-        <v>140102</v>
+        <v>171231</v>
       </c>
       <c r="C510" t="s">
         <v>3610</v>
@@ -48893,7 +48893,7 @@
         <v>6772</v>
       </c>
       <c r="B512" t="n">
-        <v>140103</v>
+        <v>171232</v>
       </c>
       <c r="C512" t="s">
         <v>3625</v>
@@ -48964,7 +48964,7 @@
         <v>6772</v>
       </c>
       <c r="B513" t="n">
-        <v>140104</v>
+        <v>171233</v>
       </c>
       <c r="C513" t="s">
         <v>3632</v>
@@ -49039,7 +49039,7 @@
         <v>6772</v>
       </c>
       <c r="B514" t="n">
-        <v>140105</v>
+        <v>171234</v>
       </c>
       <c r="C514" t="s">
         <v>3639</v>
@@ -49110,7 +49110,7 @@
         <v>6772</v>
       </c>
       <c r="B515" t="n">
-        <v>140106</v>
+        <v>171235</v>
       </c>
       <c r="C515" t="s">
         <v>3648</v>
@@ -49260,7 +49260,7 @@
         <v>6772</v>
       </c>
       <c r="B517" t="n">
-        <v>140107</v>
+        <v>171236</v>
       </c>
       <c r="C517" t="s">
         <v>3662</v>
@@ -49335,7 +49335,7 @@
         <v>6772</v>
       </c>
       <c r="B518" t="n">
-        <v>140108</v>
+        <v>171237</v>
       </c>
       <c r="C518" t="s">
         <v>3668</v>
@@ -49477,7 +49477,7 @@
         <v>6772</v>
       </c>
       <c r="B520" t="n">
-        <v>140109</v>
+        <v>171238</v>
       </c>
       <c r="C520" t="s">
         <v>3682</v>
@@ -49552,7 +49552,7 @@
         <v>6772</v>
       </c>
       <c r="B521" t="n">
-        <v>140110</v>
+        <v>171239</v>
       </c>
       <c r="C521" t="s">
         <v>3688</v>
@@ -49623,7 +49623,7 @@
         <v>6772</v>
       </c>
       <c r="B522" t="n">
-        <v>140111</v>
+        <v>171240</v>
       </c>
       <c r="C522" t="s">
         <v>3696</v>
@@ -49698,7 +49698,7 @@
         <v>6772</v>
       </c>
       <c r="B523" t="n">
-        <v>140112</v>
+        <v>171241</v>
       </c>
       <c r="C523" t="s">
         <v>3702</v>
@@ -49769,7 +49769,7 @@
         <v>6772</v>
       </c>
       <c r="B524" t="n">
-        <v>140113</v>
+        <v>171242</v>
       </c>
       <c r="C524" t="s">
         <v>3708</v>
@@ -49990,7 +49990,7 @@
         <v>6772</v>
       </c>
       <c r="B527" t="n">
-        <v>140114</v>
+        <v>171243</v>
       </c>
       <c r="C527" t="s">
         <v>3728</v>
@@ -50065,7 +50065,7 @@
         <v>6772</v>
       </c>
       <c r="B528" t="n">
-        <v>140115</v>
+        <v>171244</v>
       </c>
       <c r="C528" t="s">
         <v>3737</v>
@@ -50215,7 +50215,7 @@
         <v>6772</v>
       </c>
       <c r="B530" t="n">
-        <v>140116</v>
+        <v>171245</v>
       </c>
       <c r="C530" t="s">
         <v>3748</v>
@@ -50280,7 +50280,7 @@
         <v>6772</v>
       </c>
       <c r="B531" t="n">
-        <v>140117</v>
+        <v>171246</v>
       </c>
       <c r="C531" t="s">
         <v>3757</v>
@@ -50430,7 +50430,7 @@
         <v>6772</v>
       </c>
       <c r="B533" t="n">
-        <v>140118</v>
+        <v>171247</v>
       </c>
       <c r="C533" t="s">
         <v>3768</v>
@@ -50505,7 +50505,7 @@
         <v>6772</v>
       </c>
       <c r="B534" t="n">
-        <v>140119</v>
+        <v>171248</v>
       </c>
       <c r="C534" t="s">
         <v>3775</v>
@@ -50730,7 +50730,7 @@
         <v>6772</v>
       </c>
       <c r="B537" t="n">
-        <v>140120</v>
+        <v>171249</v>
       </c>
       <c r="C537" t="s">
         <v>3798</v>
@@ -50805,7 +50805,7 @@
         <v>6772</v>
       </c>
       <c r="B538" t="n">
-        <v>140121</v>
+        <v>171250</v>
       </c>
       <c r="C538" t="s">
         <v>3804</v>
@@ -50880,7 +50880,7 @@
         <v>6772</v>
       </c>
       <c r="B539" t="n">
-        <v>140122</v>
+        <v>171251</v>
       </c>
       <c r="C539" t="s">
         <v>3810</v>
@@ -50955,7 +50955,7 @@
         <v>6772</v>
       </c>
       <c r="B540" t="n">
-        <v>140123</v>
+        <v>171252</v>
       </c>
       <c r="C540" t="s">
         <v>3819</v>
@@ -51166,7 +51166,7 @@
         <v>6772</v>
       </c>
       <c r="B543" t="n">
-        <v>140124</v>
+        <v>171253</v>
       </c>
       <c r="C543" t="s">
         <v>3838</v>
@@ -51511,7 +51511,7 @@
         <v>6772</v>
       </c>
       <c r="B548" t="n">
-        <v>140125</v>
+        <v>171254</v>
       </c>
       <c r="C548" t="s">
         <v>3875</v>
@@ -51586,7 +51586,7 @@
         <v>6772</v>
       </c>
       <c r="B549" t="n">
-        <v>140126</v>
+        <v>171255</v>
       </c>
       <c r="C549" t="s">
         <v>3884</v>
@@ -51661,7 +51661,7 @@
         <v>6772</v>
       </c>
       <c r="B550" t="n">
-        <v>140127</v>
+        <v>171256</v>
       </c>
       <c r="C550" t="s">
         <v>3890</v>
@@ -51736,7 +51736,7 @@
         <v>6772</v>
       </c>
       <c r="B551" t="n">
-        <v>140128</v>
+        <v>171257</v>
       </c>
       <c r="C551" t="s">
         <v>3899</v>
